--- a/progetto finale 1 Mario.xlsx
+++ b/progetto finale 1 Mario.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689132DF-D466-403E-BBFE-158BFF25B183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561E26F1-32C5-48B6-81C9-9124BDA8B96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
   </bookViews>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>Amministrazione</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>62-66</t>
-  </si>
-  <si>
-    <t>(Tutto)</t>
   </si>
   <si>
     <t>l'età incide nella retribuzione? Si può individuare un settore dove è più marcata la differenza?</t>
@@ -718,7 +715,37 @@
     <cellStyle name="Euro" xfId="1" xr:uid="{05E7F11F-6F36-4D5E-B619-68835A6DDD65}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1702,28 +1729,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -1807,28 +1834,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -1842,8 +1869,11 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>2584</c:v>
+                <c:pt idx="3">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1915,28 +1945,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -1950,12 +1980,21 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1476</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-9B1C-41F7-8038-9AEDCC445F69}"/>
+              <c16:uniqueId val="{0000001C-9B1C-41F7-8038-9AEDCC445F69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2020,28 +2059,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -2058,21 +2097,15 @@
                 <c:pt idx="0">
                   <c:v>1676</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2275</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1650</c:v>
+                <c:pt idx="8">
+                  <c:v>1623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-9B1C-41F7-8038-9AEDCC445F69}"/>
+              <c16:uniqueId val="{0000001D-9B1C-41F7-8038-9AEDCC445F69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2137,28 +2170,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -2172,7 +2205,7 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2152</c:v>
                 </c:pt>
               </c:numCache>
@@ -2180,7 +2213,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-9B1C-41F7-8038-9AEDCC445F69}"/>
+              <c16:uniqueId val="{0000001E-9B1C-41F7-8038-9AEDCC445F69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2245,28 +2278,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -2280,9 +2313,6 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>3277</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1670</c:v>
                 </c:pt>
@@ -2291,7 +2321,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-9B1C-41F7-8038-9AEDCC445F69}"/>
+              <c16:uniqueId val="{0000001F-9B1C-41F7-8038-9AEDCC445F69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2360,28 +2390,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -2395,9 +2425,6 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="7">
-                  <c:v>3680</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>1750</c:v>
                 </c:pt>
@@ -2406,7 +2433,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-9B1C-41F7-8038-9AEDCC445F69}"/>
+              <c16:uniqueId val="{00000020-9B1C-41F7-8038-9AEDCC445F69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4332,7 +4359,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Amministrazione</c:v>
+                  <c:v>Produzione</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4502,189 +4529,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="6.3902230971128612E-2"/>
-                  <c:y val="-0.18976664676871985"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{2D37FDFE-B5B0-4D2B-B089-8BA18F32C8B2}" type="VALUE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALORE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="it-IT"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-249B-4F27-8995-522260D85099}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{8E09734F-6D1A-42D8-AE7B-DBD2398FE97F}" type="VALUE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALORE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="it-IT"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-249B-4F27-8995-522260D85099}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{40976F95-FF89-47E8-80ED-0D841EB48A05}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:pPr/>
-                      <a:t>[VALORE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="it-IT"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-249B-4F27-8995-522260D85099}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{59EEB4C4-9D94-4B26-8929-636150CF7207}" type="VALUE">
-                      <a:rPr lang="en-US" sz="1000"/>
-                      <a:pPr/>
-                      <a:t>[VALORE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="it-IT"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-249B-4F27-8995-522260D85099}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A04F311F-F883-4433-8CF3-5FE27F70C2A1}" type="VALUE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALORE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="it-IT"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-249B-4F27-8995-522260D85099}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4775,16 +4619,25 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4793,753 +4646,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000010-249B-4F27-8995-522260D85099}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$C$105:$C$106</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Commerciale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$107:$A$114</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>22-26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27-31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32-36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37-41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42-46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52-56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62-66</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$107:$C$114</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000045-249B-4F27-8995-522260D85099}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$105:$D$106</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direzione</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$107:$A$114</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>22-26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27-31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32-36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37-41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42-46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52-56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62-66</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$107:$D$114</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000046-249B-4F27-8995-522260D85099}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$E$105:$E$106</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Produzione</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$107:$A$114</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>22-26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27-31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32-36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37-41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42-46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52-56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62-66</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$E$107:$E$114</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000047-249B-4F27-8995-522260D85099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10405,7 +9511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Amministrazione</c:v>
+                  <c:v>Produzione</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10569,16 +9675,25 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -10587,585 +9702,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ABF0-40FC-9C39-DB7E1BD814A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$C$105:$C$106</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Commerciale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$107:$A$114</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>22-26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27-31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32-36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37-41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42-46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52-56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62-66</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$C$107:$C$114</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-ABF0-40FC-9C39-DB7E1BD814A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$D$105:$D$106</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Direzione</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$107:$A$114</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>22-26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27-31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32-36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37-41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42-46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52-56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62-66</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$D$107:$D$114</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-ABF0-40FC-9C39-DB7E1BD814A9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$E$105:$E$106</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Produzione</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$107:$A$114</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>22-26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27-31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32-36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37-41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42-46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52-56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62-66</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$E$107:$E$114</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-ABF0-40FC-9C39-DB7E1BD814A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13476,28 +12012,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -13581,28 +12117,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -13616,8 +12152,11 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>2584</c:v>
+                <c:pt idx="3">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13689,28 +12228,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -13724,12 +12263,21 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1476</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-7D60-4752-85AF-33F620314F0D}"/>
+              <c16:uniqueId val="{00000017-7D60-4752-85AF-33F620314F0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13794,28 +12342,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -13832,21 +12380,15 @@
                 <c:pt idx="0">
                   <c:v>1676</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2768</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2275</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1650</c:v>
+                <c:pt idx="8">
+                  <c:v>1623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-7D60-4752-85AF-33F620314F0D}"/>
+              <c16:uniqueId val="{00000018-7D60-4752-85AF-33F620314F0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13911,28 +12453,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -13946,7 +12488,7 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2152</c:v>
                 </c:pt>
               </c:numCache>
@@ -13954,7 +12496,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-7D60-4752-85AF-33F620314F0D}"/>
+              <c16:uniqueId val="{00000019-7D60-4752-85AF-33F620314F0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14019,28 +12561,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -14054,9 +12596,6 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="1">
-                  <c:v>3277</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>1670</c:v>
                 </c:pt>
@@ -14065,7 +12604,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-7D60-4752-85AF-33F620314F0D}"/>
+              <c16:uniqueId val="{0000001A-7D60-4752-85AF-33F620314F0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14134,28 +12673,28 @@
                   <c:v>Dipendende 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dipendende 11</c:v>
+                  <c:v>Dipendende 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Dipendende 12</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Dipendende 15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Dipendende 17</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Dipendende 22</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dipendende 23</c:v>
+                  <c:v>Dipendende 25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dipendende 3</c:v>
+                  <c:v>Dipendende 26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dipendende 5</c:v>
+                  <c:v>Dipendende 27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dipendende 7</c:v>
+                  <c:v>Dipendende 6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Dipendende 9</c:v>
@@ -14169,9 +12708,6 @@
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="7">
-                  <c:v>3680</c:v>
-                </c:pt>
                 <c:pt idx="9">
                   <c:v>1750</c:v>
                 </c:pt>
@@ -14180,7 +12716,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-7D60-4752-85AF-33F620314F0D}"/>
+              <c16:uniqueId val="{0000001B-7D60-4752-85AF-33F620314F0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15261,6 +13797,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -15299,6 +13874,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
@@ -15337,6 +13951,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -15375,6 +14028,45 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -32519,7 +31211,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>337623</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>123208</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32975,7 +31667,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24197EBA-D38A-4329-B0C3-8B25ED8F0E1D}" name="Tabella pivot6" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
-  <location ref="A105:F114" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A105:C114" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0">
       <items count="29">
@@ -33042,9 +31734,9 @@
     </pivotField>
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -33117,16 +31809,7 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <colItems count="2">
     <i>
       <x v="3"/>
     </i>
@@ -33138,7 +31821,7 @@
     <dataField name="Conteggio di Cognome" fld="0" subtotal="count" baseField="5" baseItem="1" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -33852,7 +32535,7 @@
     <dataField name="Media di Stipendio" fld="4" subtotal="average" baseField="6" baseItem="1" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -34362,7 +33045,7 @@
     <dataField name="Somma di Stipendio" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -35835,7 +34518,7 @@
     <dataField name="Media di Stipendio" fld="4" subtotal="average" baseField="3" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -36018,9 +34701,9 @@
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -36069,28 +34752,28 @@
       <x/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="3"/>
     </i>
     <i>
+      <x v="6"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="21"/>
+      <x v="19"/>
     </i>
     <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
+      <x v="24"/>
     </i>
     <i>
       <x v="27"/>
@@ -36135,7 +34818,7 @@
     <dataField name="Somma di Stipendio" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -36341,32 +35024,32 @@
       <items count="28">
         <i x="0" s="1"/>
         <i x="9" s="1"/>
-        <i x="10" s="1"/>
         <i x="11" s="1"/>
         <i x="12" s="1"/>
-        <i x="13" s="1"/>
         <i x="14" s="1"/>
-        <i x="15" s="1"/>
         <i x="16" s="1"/>
         <i x="17" s="1"/>
         <i x="18" s="1"/>
         <i x="1" s="1"/>
         <i x="19" s="1"/>
         <i x="20" s="1"/>
-        <i x="21" s="1"/>
-        <i x="22" s="1"/>
-        <i x="23" s="1"/>
         <i x="24" s="1"/>
         <i x="25" s="1"/>
         <i x="26" s="1"/>
         <i x="27" s="1"/>
-        <i x="2" s="1"/>
         <i x="3" s="1"/>
-        <i x="4" s="1"/>
         <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
         <i x="8" s="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="21" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
+        <i x="23" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -36382,9 +35065,9 @@
   <data>
     <tabular pivotCacheId="765986032">
       <items count="4">
-        <i x="1" s="1"/>
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
+        <i x="1"/>
+        <i x="3"/>
+        <i x="2"/>
         <i x="0" s="1"/>
       </items>
     </tabular>
@@ -36879,7 +35562,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38273,7 +36956,7 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G1:G29">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38288,19 +36971,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62B5752-1441-47EA-A811-6115122547DB}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView topLeftCell="A97" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
@@ -38326,10 +37006,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
@@ -38337,7 +37017,7 @@
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -38396,19 +37076,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25">
+        <v>1476</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="25">
-        <v>3277</v>
-      </c>
+      <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25">
-        <v>3277</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -38430,104 +37110,104 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25">
+        <v>1414</v>
+      </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="25">
-        <v>2152</v>
-      </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25">
-        <v>2152</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
-      <c r="E9" s="25">
-        <v>2768</v>
-      </c>
-      <c r="F9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
+        <v>2152</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25">
-        <v>2768</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25">
-        <v>2275</v>
-      </c>
+      <c r="D10" s="25">
+        <v>1414</v>
+      </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25">
-        <v>2275</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25">
+        <v>1414</v>
+      </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="25">
-        <v>1650</v>
-      </c>
+      <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25">
-        <v>1650</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25">
+        <v>1476</v>
+      </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="25">
-        <v>3680</v>
-      </c>
+      <c r="H12" s="25"/>
       <c r="I12" s="25">
-        <v>3680</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="25">
-        <v>2584</v>
-      </c>
+      <c r="C13" s="25"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="25">
+        <v>1623</v>
+      </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25">
-        <v>2584</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -38553,28 +37233,30 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25">
-        <v>2584</v>
-      </c>
-      <c r="D15" s="25"/>
+        <v>2828</v>
+      </c>
+      <c r="D15" s="25">
+        <v>4366</v>
+      </c>
       <c r="E15" s="25">
-        <v>8369</v>
+        <v>3299</v>
       </c>
       <c r="F15" s="25">
         <v>2152</v>
       </c>
       <c r="G15" s="25">
-        <v>4947</v>
+        <v>1670</v>
       </c>
       <c r="H15" s="25">
-        <v>5430</v>
+        <v>1750</v>
       </c>
       <c r="I15" s="25">
-        <v>23482</v>
+        <v>16065</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D36" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
@@ -38584,7 +37266,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>46</v>
@@ -38746,7 +37428,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D57" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
@@ -38775,7 +37457,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="25">
         <v>2560</v>
@@ -38786,7 +37468,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="25">
         <v>1340</v>
@@ -38797,7 +37479,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="25">
         <v>2890</v>
@@ -38808,7 +37490,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="25">
         <v>3013</v>
@@ -38830,7 +37512,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D84" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
@@ -38840,7 +37522,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86" s="23" t="s">
         <v>46</v>
@@ -38877,7 +37559,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B88" s="25">
         <v>1241</v>
@@ -38898,7 +37580,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" s="25"/>
       <c r="C89" s="25">
@@ -38917,7 +37599,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="25">
@@ -38938,7 +37620,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" s="25"/>
       <c r="C91" s="25">
@@ -38959,7 +37641,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
@@ -38976,7 +37658,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
@@ -38993,7 +37675,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -39010,7 +37692,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -39027,7 +37709,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -39075,7 +37757,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D103" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
@@ -39085,7 +37767,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B105" s="23" t="s">
         <v>46</v>
@@ -39096,18 +37778,9 @@
         <v>44</v>
       </c>
       <c r="B106" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1</v>
-      </c>
-      <c r="E106" t="s">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s">
         <v>45</v>
       </c>
     </row>
@@ -39115,13 +37788,10 @@
       <c r="A107" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28">
+      <c r="B107" s="28">
         <v>2</v>
       </c>
-      <c r="F107" s="28">
+      <c r="C107" s="28">
         <v>2</v>
       </c>
     </row>
@@ -39130,17 +37800,10 @@
         <v>48</v>
       </c>
       <c r="B108" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C108" s="28">
-        <v>1</v>
-      </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28">
         <v>5</v>
-      </c>
-      <c r="F108" s="28">
-        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -39148,15 +37811,10 @@
         <v>49</v>
       </c>
       <c r="B109" s="28">
-        <v>1</v>
-      </c>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28">
         <v>6</v>
       </c>
-      <c r="F109" s="28">
-        <v>7</v>
+      <c r="C109" s="28">
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -39164,17 +37822,10 @@
         <v>50</v>
       </c>
       <c r="B110" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="28">
         <v>2</v>
-      </c>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28">
-        <v>2</v>
-      </c>
-      <c r="F110" s="28">
-        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -39184,65 +37835,41 @@
       <c r="B111" s="28">
         <v>1</v>
       </c>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28">
+      <c r="C111" s="28">
         <v>1</v>
-      </c>
-      <c r="F111" s="28">
-        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28">
+      <c r="B112" s="28">
         <v>1</v>
       </c>
-      <c r="E112" s="28">
+      <c r="C112" s="28">
         <v>1</v>
       </c>
-      <c r="F112" s="28">
-        <v>2</v>
-      </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28">
+      <c r="B113" s="28">
         <v>1</v>
       </c>
-      <c r="E113" s="28">
+      <c r="C113" s="28">
         <v>1</v>
       </c>
-      <c r="F113" s="28">
-        <v>2</v>
-      </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B114" s="28">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C114" s="28">
-        <v>3</v>
-      </c>
-      <c r="D114" s="28">
-        <v>2</v>
-      </c>
-      <c r="E114" s="28">
         <v>18</v>
-      </c>
-      <c r="F114" s="28">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -39262,8 +37889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B754A682-96ED-4773-8061-2A6E1B7045C2}">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39273,7 +37900,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
